--- a/pitomets.com.ua/Payment_method.xlsx
+++ b/pitomets.com.ua/Payment_method.xlsx
@@ -340,12 +340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,6 +349,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -688,7 +688,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,15 +703,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
@@ -810,13 +810,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="12"/>
@@ -828,10 +828,10 @@
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="12"/>
@@ -843,8 +843,8 @@
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
